--- a/Frontend/src/App/data/educations.xlsx
+++ b/Frontend/src/App/data/educations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mendy\Desktop\Projects\CareerBoost\CareerBoost\Frontend\src\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084B8237-B937-431A-B14A-C60068AB743A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591FAFE3-917A-430A-9651-08AE25A1AB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Some college/university study without earning a degree</t>
   </si>
   <si>
     <t>Secondary school (e.g. American high school, German Realschule or Gymnasium, etc.)</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Professional degree (JD, MD, Ph.D, Ed.D, etc.)</t>
@@ -369,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -382,52 +379,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A9">
-    <sortCondition ref="A1:A9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A8">
+    <sortCondition ref="A1:A8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
